--- a/表结构及功能逻辑/字典表定义.xlsx
+++ b/表结构及功能逻辑/字典表定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9765"/>
+    <workbookView windowWidth="20445" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>主表</t>
   </si>
@@ -72,16 +72,32 @@
 4.临时授权审批
 5.作废审批
 6.归档审批
-8.系统通知</t>
-  </si>
-  <si>
-    <t>1.人
-2.职能
-3.部门
-4.部门群组
-5.系统群组
-6.科室
-9.全公司</t>
+7.系统通知</t>
+  </si>
+  <si>
+    <t>日志表文件操作类型</t>
+  </si>
+  <si>
+    <t>1.增加
+2.删除
+3.修改
+4.在线阅读
+5.下载源文件
+6.下载pdf文件
+7.文件收藏
+8.文件分享
+......</t>
+  </si>
+  <si>
+    <t>1.增加
+2.删除
+3.修改
+4.在线阅读
+5.下载源文件
+6.下载pdf文件
+7.文件收藏
+9.文件分享
+......</t>
   </si>
 </sst>
 </file>
@@ -89,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,6 +141,94 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -132,16 +236,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,73 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,30 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +518,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,8 +545,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +583,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -583,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,143 +611,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,16 +758,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1072,92 +1097,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="H10:K16"/>
+  <dimension ref="H10:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" ht="14.25" spans="8:11">
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="14.25" spans="8:11">
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="54" spans="8:10">
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="81" spans="8:10">
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="94.5" spans="8:10">
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="94.5" spans="8:10">
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="94.5" spans="8:10">
-      <c r="H16" s="3">
+    <row r="16" ht="121.5" spans="8:10">
+      <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="121.5" spans="8:10">
+      <c r="H17" s="4">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/表结构及功能逻辑/字典表定义.xlsx
+++ b/表结构及功能逻辑/字典表定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="8895"/>
+    <workbookView windowWidth="23445" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>主表</t>
   </si>
@@ -44,11 +44,8 @@
   </si>
   <si>
     <t>1.人
-2.职位
-3.部门
-4.科室
-5.部门群组
-6.系统群组</t>
+2.部门
+3.科室</t>
   </si>
   <si>
     <t>通知范围类型</t>
@@ -99,16 +96,23 @@
 9.文件分享
 ......</t>
   </si>
+  <si>
+    <t>默认系统角色</t>
+  </si>
+  <si>
+    <t>1.普通员工
+2.系统管理员</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,6 +134,94 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -140,6 +232,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -148,135 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +289,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,25 +337,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,43 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,18 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,67 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,11 +504,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,8 +570,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,32 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,149 +609,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +767,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,6 +784,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="H10:K17"/>
+  <dimension ref="H10:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,43 +1133,43 @@
       <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="8:11">
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" ht="54" spans="8:10">
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="81" spans="8:10">
+    <row r="13" ht="40.5" spans="8:10">
       <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1158,10 +1177,10 @@
       <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1169,10 +1188,10 @@
       <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1180,10 +1199,10 @@
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1191,11 +1210,22 @@
       <c r="H17" s="4">
         <v>6</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="14" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="8:10">
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
